--- a/data/trans_bre/P3A_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.279350634250084</v>
+        <v>-6.173972853428782</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.135778117226455</v>
+        <v>-5.2325080209921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.049496442305154</v>
+        <v>-2.85624143261755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.937125560355805</v>
+        <v>-2.593051458215957</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4669907412670035</v>
+        <v>-0.448570418807972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4877306112568157</v>
+        <v>-0.5077647101457676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4722039363113886</v>
+        <v>-0.4185286534936111</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3453691679499343</v>
+        <v>-0.304449365842614</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.150617426141888</v>
+        <v>3.066798598213421</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.567665935329204</v>
+        <v>3.250394479174839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.328939924279112</v>
+        <v>4.610649293407925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.894906000165626</v>
+        <v>2.971330799983065</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3127349389656024</v>
+        <v>0.333524943355655</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.554897656630322</v>
+        <v>0.4486441770986171</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.065302242938593</v>
+        <v>1.307567358465872</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4999027400294231</v>
+        <v>0.5354439271445958</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.679644963974933</v>
+        <v>-4.688275630689181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.077997661552012</v>
+        <v>-2.874446771534134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.605933518454271</v>
+        <v>-2.719247946589492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.617277242009908</v>
+        <v>-1.370988145931282</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6545153789886861</v>
+        <v>-0.651552664332249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5099685443856266</v>
+        <v>-0.4760358316436841</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7468123324242221</v>
+        <v>-0.7637311186625361</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3258238000588319</v>
+        <v>-0.2662819192813475</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.717758909920317</v>
+        <v>1.629207884380976</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.126751652007838</v>
+        <v>4.183695659078473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.184121020539525</v>
+        <v>2.208082435293721</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.028343813348208</v>
+        <v>3.131270710164776</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5792209054450782</v>
+        <v>0.5194562153950827</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.32489272230017</v>
+        <v>1.447824586490325</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.617549763385328</v>
+        <v>1.739990308134691</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.039287479457437</v>
+        <v>1.145202662129511</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.4768004599413861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.580093425862899</v>
+        <v>3.580093425862897</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00374175427703731</v>
@@ -849,7 +849,7 @@
         <v>0.283327352754683</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8976723433426319</v>
+        <v>0.8976723433426315</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.367970686266357</v>
+        <v>-2.299829452063387</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7549401089657032</v>
+        <v>-0.7805131842569619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.587788071948609</v>
+        <v>-1.413839343094305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2120526569064118</v>
+        <v>0.1391986736442171</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7727216586681168</v>
+        <v>-0.7778709645739077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.308920978941545</v>
+        <v>-0.3477017443369179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-1</v>
+        <v>-0.6818913715903144</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.007280226463676308</v>
+        <v>-0.006146821347900862</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.327775907647349</v>
+        <v>3.74048890699912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.918990651109272</v>
+        <v>5.189230320843412</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.587385821669654</v>
+        <v>4.775348556791295</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.51805897927334</v>
+        <v>7.595706722243088</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.020454707986836</v>
+        <v>2.093785143623568</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.880091593635794</v>
+        <v>3.071869164713918</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.533254697123094</v>
+        <v>5.198041828529585</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.446752910219815</v>
+        <v>2.424310965326574</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.858147750086546</v>
+        <v>-1.740420478034178</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.267705703832044</v>
+        <v>-2.259123095462621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.237249278064927</v>
+        <v>-1.284068868268421</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.077120311436912</v>
+        <v>-3.086528811738805</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7384667845056168</v>
+        <v>-0.7360285466856551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.759077173236808</v>
+        <v>-0.7437972647530759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5677625970437198</v>
+        <v>-0.5734486751314671</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5317213363095527</v>
+        <v>-0.5271869835786368</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3136203563337565</v>
+        <v>0.3751621592080637</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7184059620037895</v>
+        <v>0.53604810614475</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.324226513035706</v>
+        <v>1.24453901146543</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1507702343129937</v>
+        <v>0.02259279146002449</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2322501085439894</v>
+        <v>0.2865060784630495</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4515107363751357</v>
+        <v>0.3246205348377536</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.034279410865644</v>
+        <v>0.9796227421943912</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03749916906080541</v>
+        <v>0.01121290581442557</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.4372418567513517</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6699632766905804</v>
+        <v>0.6699632766905808</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.299606577298715</v>
+        <v>-1.234460879170275</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.637169233195552</v>
+        <v>-3.701891850680746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.49822164041253</v>
+        <v>-2.516051667392022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2783664476217287</v>
+        <v>0.5227104828681034</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6394372712725969</v>
+        <v>-0.6699440416581984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6360941613788175</v>
+        <v>-0.6336916721053196</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7928065062175839</v>
+        <v>-0.8009997290638678</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.05318215121967952</v>
+        <v>0.08751401557559607</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.985178753531821</v>
+        <v>1.98672319794259</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7732098785394723</v>
+        <v>0.627317366891505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.428369000693907</v>
+        <v>0.3314607753574166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.859517269181972</v>
+        <v>4.112254975252464</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.658873835715584</v>
+        <v>3.819409064699836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2901700886026428</v>
+        <v>0.2198363964628516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4436753810176741</v>
+        <v>0.3089497037169063</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.629288537390832</v>
+        <v>1.776706428091187</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.75500511538413</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.378747947184564</v>
+        <v>4.378747947184566</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3912288416899459</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.993262634044174</v>
+        <v>-5.012050124069956</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.525543498001995</v>
+        <v>1.479181537343554</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2958210316868757</v>
+        <v>0.527006446352371</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.82620461232501</v>
+        <v>-1.747461017638348</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6793201515232877</v>
+        <v>-0.6867840715275226</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2807396404096726</v>
+        <v>0.273606001602257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03065330853153845</v>
+        <v>0.02305935085275942</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2511324958379531</v>
+        <v>-0.2499559031257531</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3619245405804487</v>
+        <v>0.2585633298865605</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.785099247325677</v>
+        <v>6.267278025863117</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.848929296995603</v>
+        <v>4.757774516347921</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.222430550741642</v>
+        <v>7.272087067593224</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1467992440141682</v>
+        <v>0.1019344733437964</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.321084550099616</v>
+        <v>5.130763051117653</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>7.960143943928388</v>
+        <v>7.059738046624227</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>10.69199334707807</v>
+        <v>10.99978271252692</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.2460106901935043</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2657779157160574</v>
+        <v>0.2657779157160575</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.81885999202219</v>
+        <v>-1.784277072190936</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3709587702208014</v>
+        <v>-0.2926103766346679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1893041387197167</v>
+        <v>-0.1918262638198014</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3023004557137694</v>
+        <v>0.2855098369541925</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4012066986897905</v>
+        <v>-0.4041393723119572</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.08892765388687168</v>
+        <v>-0.07226370295922285</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.06709983273792207</v>
+        <v>-0.07388696522903983</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.05378086271995964</v>
+        <v>0.05153607463387684</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.004497218819147209</v>
+        <v>0.04541313119914589</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.721261327614065</v>
+        <v>1.773060357749813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.438609300923846</v>
+        <v>1.495136081477013</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.144500462108839</v>
+        <v>2.210108396637063</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.004319581832274428</v>
+        <v>0.01358261247359145</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5048952287191625</v>
+        <v>0.5299736032414877</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7041950140602932</v>
+        <v>0.711225618276229</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5308907249374716</v>
+        <v>0.5464670893350224</v>
       </c>
     </row>
     <row r="25">
